--- a/results_repeated_boost_ensemble/data_1_1year_premier_league_medias_metricas.xlsx
+++ b/results_repeated_boost_ensemble/data_1_1year_premier_league_medias_metricas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,175 +473,200 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>AdaBoost_DT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.645</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6472222222222223</v>
+        <v>0.5680555555555555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6662346647385011</v>
+        <v>0.6092858956584447</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6472222222222223</v>
+        <v>0.5680555555555555</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6486387388658169</v>
+        <v>0.5742978822309037</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8012400793650795</v>
+        <v>0.7453993055555556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.615</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6138888888888889</v>
+        <v>0.6680555555555555</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6434996192890929</v>
+        <v>0.6746037296037296</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6138888888888889</v>
+        <v>0.6680555555555555</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6207896476775195</v>
+        <v>0.6657923558701959</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7952628968253967</v>
+        <v>0.8038442460317461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GaussianNB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.51</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5249999999999999</v>
+        <v>0.5805555555555555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5401890409785147</v>
+        <v>0.5807098617968183</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5249999999999999</v>
+        <v>0.5805555555555555</v>
       </c>
       <c r="F4" t="n">
-        <v>0.509403416604469</v>
+        <v>0.5675877073118453</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7386532738095238</v>
+        <v>0.7685391865079365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5650000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5680555555555555</v>
+        <v>0.525</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5901959151959152</v>
+        <v>0.5401890409785146</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5680555555555555</v>
+        <v>0.525</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5741066096464991</v>
+        <v>0.509403416604469</v>
       </c>
       <c r="G5" t="n">
-        <v>0.792485119047619</v>
+        <v>0.7386532738095239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GaussianNB</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5805555555555555</v>
+        <v>0.6138888888888889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5807098617968183</v>
+        <v>0.6434996192890929</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5805555555555555</v>
+        <v>0.6138888888888889</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5675877073118452</v>
+        <v>0.6207896476775195</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7685391865079364</v>
+        <v>0.7952628968253967</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AdaBoost_DT</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.645</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5680555555555555</v>
+        <v>0.6472222222222223</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6092858956584446</v>
+        <v>0.6662346647385011</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5680555555555555</v>
+        <v>0.6472222222222223</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5742978822309037</v>
+        <v>0.6486387388658169</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7453993055555557</v>
+        <v>0.8012400793650795</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5650000000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5680555555555555</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5901959151959152</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5680555555555555</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5741066096464991</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.792485119047619</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.645</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.6527777777777778</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.6455939485351251</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>0.6527777777777778</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>0.6464188971843209</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>0.783358134920635</v>
       </c>
     </row>
